--- a/reddit/reddit_comentarios_consolidados2.xlsx
+++ b/reddit/reddit_comentarios_consolidados2.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
         <v>2</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>4</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F90" t="n">
         <v>3</v>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>2</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
         <v>2</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F147" t="n">
         <v>4</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F148" t="n">
         <v>5</v>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F152" t="n">
         <v>6</v>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="F157" t="n">
         <v>6</v>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F158" t="n">
         <v>7</v>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
         <v>4</v>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F172" t="n">
         <v>2</v>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F173" t="n">
         <v>3</v>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F174" t="n">
         <v>4</v>
@@ -7366,7 +7366,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F181" t="n">
         <v>4</v>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="n">
         <v>5</v>
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F183" t="n">
         <v>6</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F184" t="n">
         <v>7</v>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F195" t="n">
         <v>4</v>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -8329,7 +8329,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F206" t="n">
         <v>2</v>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -8835,7 +8835,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F219" t="n">
         <v>4</v>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
